--- a/Term 4/CP4/currencies_exchange.xlsx
+++ b/Term 4/CP4/currencies_exchange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Algs-and-DS\Term 4\CP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06860B7D-F341-4211-818E-120F5E959FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C30A1-C01F-4649-92EC-796F3F71910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="558" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>Rub</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>На предыдущем этапе было больше ресурсов</t>
+  </si>
+  <si>
+    <t>{'Rub': 1, 'Dollar': 0.0096, 'Euro': 0.0087, 'GPB': 0.007220999999999999}</t>
+  </si>
+  <si>
+    <t>{'Rub': 2, 'Dollar': 0.0192, 'Euro': 0.0174, 'GPB': 0.014441999999999998}</t>
   </si>
 </sst>
 </file>
@@ -114,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -209,23 +215,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,7 +563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -565,7 +573,7 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
@@ -579,16 +587,16 @@
     <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -603,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +631,7 @@
         <v>7.2233458537994798E-3</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,7 +648,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -657,7 +665,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,18 +682,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="15" t="s">
+    <row r="11" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
@@ -696,8 +704,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="14" t="s">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F13" t="s">
@@ -707,19 +715,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="L16" t="s">
-        <v>12</v>
+      <c r="E16" s="12"/>
+      <c r="J16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -738,8 +746,8 @@
       <c r="G17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
-        <v>13</v>
+      <c r="J17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -757,43 +765,49 @@
         <f>F4</f>
         <v>8.7260034904013961E-3</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>G4</f>
         <v>7.2233458537994798E-3</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
       </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
@@ -861,7 +875,7 @@
         <f>D23*G5</f>
         <v>7.2066878062842319E-3</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -878,7 +892,7 @@
         <f>J23*E6</f>
         <v>9.5986038394415361E-3</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <f>J23*G6</f>
         <v>7.2425828970331587E-3</v>
       </c>
@@ -888,14 +902,14 @@
       <c r="O23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <f>G18</f>
         <v>7.2233458537994798E-3</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="8">
         <f>P23*E7</f>
         <v>5.0563420976596357E-3</v>
       </c>
@@ -908,13 +922,13 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E24" s="4"/>
-      <c r="L24" s="14" t="s">
+      <c r="E24" s="3"/>
+      <c r="L24" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E25" s="4"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -952,7 +966,7 @@
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <f>F23</f>
         <v>8.6480253675410793E-3</v>
       </c>
@@ -967,13 +981,13 @@
         <f>B27*G6</f>
         <v>7.1778610550590951E-3</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>22</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <f>S23</f>
         <v>5.778676683039584E-3</v>
       </c>
@@ -988,18 +1002,18 @@
       <c r="S27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="14" t="s">
+      <c r="T27" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="14"/>
+      <c r="C28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1061,22 +1075,22 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="S31" s="14" t="s">
+      <c r="B31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="12" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Term 4/CP4/currencies_exchange.xlsx
+++ b/Term 4/CP4/currencies_exchange.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Algs-and-DS\Term 4\CP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C30A1-C01F-4649-92EC-796F3F71910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AD7409-5F08-4014-8811-37C8BAEDBD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="558" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Тест 1</t>
   </si>
   <si>
-    <t>Конвертация</t>
-  </si>
-  <si>
     <t>Курсы обмена валют</t>
   </si>
   <si>
@@ -112,17 +109,22 @@
   </si>
   <si>
     <t>{'Rub': 2, 'Dollar': 0.0192, 'Euro': 0.0174, 'GPB': 0.014441999999999998}</t>
+  </si>
+  <si>
+    <t>Прямая Конвертация</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -211,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -232,6 +234,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -253,16 +257,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>606236</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>293232</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217033</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -285,8 +289,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="0"/>
-          <a:ext cx="2779257" cy="2686050"/>
+          <a:off x="10197911" y="0"/>
+          <a:ext cx="3163622" cy="3057525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -563,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +593,7 @@
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -619,16 +623,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f>1/104.07</f>
-        <v>9.6089170750456431E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F4" s="2">
-        <f>1/114.6</f>
-        <v>8.7260034904013961E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="G4" s="2">
-        <f>1/138.44</f>
-        <v>7.2233458537994798E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -687,32 +688,32 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
@@ -723,16 +724,16 @@
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E16" s="12"/>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
@@ -747,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -757,23 +758,23 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <f>E4</f>
-        <v>9.6089170750456431E-3</v>
-      </c>
-      <c r="F18" s="2">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="F18" s="16">
         <f>F4</f>
-        <v>8.7260034904013961E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="G18" s="6">
         <f>G4</f>
-        <v>7.2233458537994798E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -783,12 +784,12 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="21" x14ac:dyDescent="0.35">
       <c r="G20" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -811,10 +812,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>0</v>
@@ -826,10 +827,10 @@
         <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
@@ -841,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>0</v>
@@ -862,69 +863,69 @@
       </c>
       <c r="D23" s="2">
         <f>E18</f>
-        <v>9.6089170750456431E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1">
         <f>D23*F5</f>
-        <v>8.6480253675410793E-3</v>
-      </c>
-      <c r="G23" s="1">
+        <v>8.6400000000000001E-3</v>
+      </c>
+      <c r="G23" s="17">
         <f>D23*G5</f>
-        <v>7.2066878062842319E-3</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>22</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="17">
         <f>F18</f>
-        <v>8.7260034904013961E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="1">
         <f>J23*E6</f>
-        <v>9.5986038394415361E-3</v>
+        <v>9.5700000000000004E-3</v>
       </c>
       <c r="M23" s="7">
         <f>J23*G6</f>
-        <v>7.2425828970331587E-3</v>
+        <v>7.2209999999999991E-3</v>
       </c>
       <c r="N23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="8">
         <f>G18</f>
-        <v>7.2233458537994798E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R23" s="8">
         <f>P23*E7</f>
-        <v>5.0563420976596357E-3</v>
+        <v>5.0399999999999993E-3</v>
       </c>
       <c r="S23" s="1">
         <f>P23*F7</f>
-        <v>5.778676683039584E-3</v>
+        <v>5.7600000000000004E-3</v>
       </c>
       <c r="U23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E24" s="3"/>
+      <c r="F24" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="L24" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -932,10 +933,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -947,10 +948,10 @@
         <v>3</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>0</v>
@@ -968,59 +969,59 @@
       </c>
       <c r="B27" s="11">
         <f>F23</f>
-        <v>8.6480253675410793E-3</v>
+        <v>8.6400000000000001E-3</v>
       </c>
       <c r="C27" s="2">
         <f>B27*D6</f>
-        <v>0.95560680311328927</v>
+        <v>0.95472000000000001</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1">
         <f>B27*G6</f>
-        <v>7.1778610550590951E-3</v>
+        <v>7.1712E-3</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P27" s="11">
         <f>S23</f>
-        <v>5.778676683039584E-3</v>
+        <v>5.7600000000000004E-3</v>
       </c>
       <c r="Q27" s="2">
         <f>P27*D6</f>
-        <v>0.63854377347587399</v>
+        <v>0.63648000000000005</v>
       </c>
       <c r="R27" s="2">
         <f>P27*E6</f>
-        <v>6.3565443513435432E-3</v>
+        <v>6.3360000000000005E-3</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>0</v>
@@ -1032,10 +1033,10 @@
         <v>2</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>0</v>
@@ -1053,18 +1054,18 @@
       </c>
       <c r="B30" s="1">
         <f>E27</f>
-        <v>7.1778610550590951E-3</v>
+        <v>7.1712E-3</v>
       </c>
       <c r="C30" s="2">
         <f>B30*D7</f>
-        <v>0.96901124243297787</v>
+        <v>0.96811199999999997</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1">
         <f>B30*F7</f>
-        <v>5.7422888440472764E-3</v>
+        <v>5.7369600000000001E-3</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>3</v>
@@ -1076,22 +1077,22 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
